--- a/src/test/test_data/BookingFlight.xlsx
+++ b/src/test/test_data/BookingFlight.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>BookFlight</t>
   </si>
@@ -92,13 +92,49 @@
   </si>
   <si>
     <t>RS</t>
+  </si>
+  <si>
+    <t>ECONOMY</t>
+  </si>
+  <si>
+    <t>Athens</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>2022-04-11</t>
+  </si>
+  <si>
+    <t>2022-04-28</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>12:00 PM - 5:59 PM</t>
+  </si>
+  <si>
+    <t>Best</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Standard ticket</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>BA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -108,13 +144,29 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -123,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -132,6 +184,12 @@
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -448,6 +506,47 @@
         <v>26</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/src/test/test_data/BookingFlight.xlsx
+++ b/src/test/test_data/BookingFlight.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>BookFlight</t>
   </si>
@@ -128,18 +128,40 @@
   </si>
   <si>
     <t>BA</t>
+  </si>
+  <si>
+    <t>PREMIUM_ECONOMY</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>2022-04-26</t>
+  </si>
+  <si>
+    <t>2022-05-05</t>
+  </si>
+  <si>
+    <t>6:00 AM - 11:59 AM</t>
+  </si>
+  <si>
+    <t>Fastest</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
@@ -175,20 +197,29 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -406,145 +437,190 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="19.0"/>
+    <col customWidth="1" min="8" max="8" width="18.14"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="5" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
